--- a/Data/Rimtalk - 3551203752/3551203752.xlsx
+++ b/Data/Rimtalk - 3551203752/3551203752.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Main_250901" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Main_250904" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="339">
   <si>
     <t xml:space="preserve">Class+Node [(Identifier (Key)]</t>
   </si>
@@ -97,10 +97,10 @@
     <t xml:space="preserve">RimTalk.TickManager.ApiKeyMissing</t>
   </si>
   <si>
-    <t xml:space="preserve">RimTalk: API key is missing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">림토크: API 키가 입력되지 않았습니다.</t>
+    <t xml:space="preserve">RimTalk: API key or Endpoint is missing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">림토크: API 키 또는 엔드포인트가 입력되지 않았습니다.</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+RimTalk.Personalities.CheerfulHelper</t>
@@ -841,10 +841,10 @@
     <t xml:space="preserve">RimTalk.Settings.AIInstructionPrompt</t>
   </si>
   <si>
-    <t xml:space="preserve">AI Instruction Prompt (Model: gemma-3-27b-it)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI 지침 프롬프트 (모델: gemma-3-27b-it)</t>
+    <t xml:space="preserve">AI Instruction Prompt (Model: {0})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI 지침 프롬프트 (모델: {0})</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+RimTalk.Settings.ExternalEditorTip</t>
@@ -1029,26 +1029,16 @@
     <t xml:space="preserve">지우기</t>
   </si>
   <si>
-    <t xml:space="preserve">Keyed+RimTalk.DefaultInstruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.DefaultInstruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role-play RimWorld character per profile.
-Portrayal:
-Age/personality appropriate speech
-Skills: max 20, mood: 0-100
-Young: impulsive, respect elders
-Old: wise, formal
-Avoid repetition, improvise
-Rules:
-Keep conversation order
-Original names, no translation
-Keep dialogue short, {0} only, 1-2 sentences
-Harsh when fighting
-Concern for sick/mental issues
-If no one nearby, monologue</t>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.BubbleFadeTip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.BubbleFadeTip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tip: Adjust the bubble fade time in the Interaction Bubbles mod settings to keep dialogue visible longer during fast-forward play.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">팁: 빨리감기를 사용한 플레이 중에 대화문을 더 오랫동안 표시하려면 Interaction Bubbles 모드 설정에서 말풍선이 사라지기 시작하는 틱을 조정하세요.</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1078,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1097,8 +1087,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FFFFA500"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87CEEB"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1145,11 +1141,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1162,6 +1158,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF87CEEB"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFA500"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1348,18 +1404,12 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6328125" defaultRowHeight="16.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="67.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="58.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="7.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,7 +1425,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1429,7 +1479,6 @@
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -2784,11 +2833,11 @@
       <c r="C84" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="3" t="s">
         <v>337</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Rimtalk - 3551203752/3551203752.xlsx
+++ b/Data/Rimtalk - 3551203752/3551203752.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Main_250904" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Main_250907" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="250904" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="482">
   <si>
     <t xml:space="preserve">Class+Node [(Identifier (Key)]</t>
   </si>
@@ -103,586 +104,10 @@
     <t xml:space="preserve">림토크: API 키 또는 엔드포인트가 입력되지 않았습니다.</t>
   </si>
   <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.CheerfulHelper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.CheerfulHelper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheerful Helper – Warm, upbeat, and encouraging. Always trying to lift spirits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쾌활한 조력자 – 따뜻함, 긍정적, 남을 격려함. 항상 사기를 북돋으려 함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.CynicalRealist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.CynicalRealist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cynical Realist – Dry, sarcastic, and skeptical. Cuts straight to harsh truths.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">냉소적 현실주의자 – 냉정함, 비꼬는 말투, 회의적. 가혹한 진실을 직설적으로 말함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.ShyThinker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.ShyThinker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shy Thinker – Quiet and hesitant. Uses few words but thoughtful when speaking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수줍은 사색가 – 조용함, 망설임. 말이 적지만 사려 깊게 말함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Hothead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Hothead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hothead – Short-tempered, loud, and impulsive. Snaps easily with fiery language.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다혈질 – 성미가 급하고 목소리가 큼, 충동적. 말투가 과격해지며 쉽게 폭발함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Philosopher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Philosopher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philosopher – Reflective and abstract. Speaks in riddles or big questions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">철학자 – 사색적이고 추상적. 곧이곧대로 말하는 대신 수수께끼나 큰 질문을 던짐.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.DarkHumorist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.DarkHumorist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dark Humorist – Jokes about grim topics. Finds comedy in misery.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">블랙 유머리스트 – 어두운 주제로 농담함. 불행 속에서 유머를 찾음.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Caregiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Caregiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caregiver – Gentle and protective. Comforting, soothing, and nurturing tone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돌보미 – 온화하고 보호적. 편안하고 부드럽고 다정한 어조.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Opportunist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Opportunist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opportunist – Sly and persuasive. Talks like a hustler, bargains, and twists words.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">기회주의자 – 교활하고 설득에 능함. 사기꾼처럼 말하며, 흥정하고 말을 뒤틂.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.OptimisticDreamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.OptimisticDreamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimistic Dreamer – Imaginative and hopeful. Excited about the future.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">낙천적 몽상가 – 상상력이 풍부함, 희망적. 다가올 미래를 기대함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Pessimist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Pessimist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pessimist – Gloomy and resigned. Expects failure and highlights risks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">비관주의자 – 우울하고 체념적. 실패를 예상하고 위험을 강조함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.StoicSoldier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.StoicSoldier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoic Soldier – Calm, disciplined, and brief. Little emotion, matter-of-fact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무뚝뚝한 군인 – 침착함, 절제됨, 간결함. 감정이 거의 없고 사실만을 말함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.FreeSpirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.FreeSpirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free Spirit – Playful and carefree. Resists rules, shrugs off worries.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자유로운 영혼 – 장난기 많고 근심이 없음. 규칙에 저항하고 걱정을 떨쳐냄.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Workaholic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Workaholic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workaholic – Driven and restless. Obsessed with duty and efficiency.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">일 중독자 – 의욕적이고 가만히 못 있음. 의무와 효율성에 집착함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Slacker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Slacker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slacker – Lazy and casual. Complains about effort, prefers comfort.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">게으름뱅이 – 게으르고 느긋함. 노력에 대해 불평하고 편안함을 선호함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.NobleIdealist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.NobleIdealist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noble Idealist – Formal and principled. Talks about honor and justice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고귀한 이상주의자 – 격식 있고 원칙적. 명예와 정의에 대해 이야기함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.StreetwiseSurvivor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.StreetwiseSurvivor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streetwise Survivor – Rough, pragmatic, and cynical. Distrusts others, values grit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">거리의 생존자 – 거칠고 실용적이며 냉소적. 다른 사람을 불신하고 인내력을 중요하게 생각함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Scholar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Scholar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholar – Curious and intellectual. Loves explaining and correcting others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">학자 – 호기심 많고 지적. 설명하고 다른 사람을 바로잡는 것을 좋아함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Jokester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Jokester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jokester – Lighthearted and silly. Constantly cracks jokes and puns.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">농담꾼 – 명랑하고 우스꽝스러움. 끊임없이 농담과 말장난을 함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.MelancholicPoet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.MelancholicPoet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melancholic Poet – Soft-spoken and moody. Expresses feelings poetically.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우울한 시인 – 목소리가 부드럽고 감정 기복이 심함. 감정을 시적으로 표현함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Paranoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Paranoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paranoid – Nervous and distrustful. Assumes betrayal, always suspicious.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">편집증적인 사람 – 불안하고 의심 많음. 배신을 전제로 하고, 항상 경계함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Commander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Commander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commander – Confident and commanding. Motivates others, expects obedience.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지휘관 – 자신감 있고 명령적. 동기 부여에 능하고 타인의 복종을 기대함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Coward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Coward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coward – Timid and fearful. Worries aloud, avoids confrontation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">겁쟁이 – 소심하고 겁이 많음. 소리 내어 걱정하고, 대립을 피함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.ArrogantNoble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.ArrogantNoble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrogant Noble – Proud and condescending. Uses formal, superior language.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오만한 귀족 – 거만하고 거들먹거림. 격식 있고 고급스러운 어휘를 사용함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.LoyalCompanion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.LoyalCompanion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loyal Companion – Steadfast and supportive. Talks about trust and unity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">충직한 동반자 – 확고하고 지지적. 신뢰와 단결에 대해 이야기함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.CuriousExplorer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.CuriousExplorer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curious Explorer – Wide-eyed and eager. Asks questions with enthusiasm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호기심 많은 탐험가 – 순진하고 열정적. 열광적으로 질문을 던짐.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.ColdRationalist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.ColdRationalist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cold Rationalist – Detached and logical. Focused only on facts and efficiency.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">냉정한 합리주의자 – 초연하고 논리적. 오직 사실과 효율성에만 집중함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.FlirtatiousCharmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.FlirtatiousCharmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flirtatious Charmer – Playful, teasing, and bold. Enjoys witty banter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">매혹적인 바람둥이 – 장난스러움, 남을 자주 놀림, 대담함. 재치 있는 농담을 즐김.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.BitterOutcast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.BitterOutcast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bitter Outcast – Resentful and sharp. Hostile, quick to recall grievances.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">불만 많은 추방자 – 원망과 분노가 가득하며 날선 말투. 적대적이며, 불만을 빠르게 기억함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Zealot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Zealot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zealot – Fanatical and intense. Speaks in absolutes, condemns unbelievers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">광신자 – 광적이고 강렬함. '~해야만 한다', '~뿐이다', '절대 ~이다' 등 단정적 표현을 사용하며 불신자를 비난함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Trickster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Trickster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trickster – Mischievous and mocking. Teases and stirs trouble for fun.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">장난꾸러기 – 장난기 많고 남을 조롱함. 재미로 타인을 놀리고 문제를 일으킴.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.DeadpanRealist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.DeadpanRealist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deadpan Realist – Flat, emotionless tone. Blunt facts with no exaggeration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무표정한 현실주의자 – 단조롭고 감정 없는 어조. 과장 없이 직설적인 사실을 말함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.ChildAtHeart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.ChildAtHeart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child-at-Heart – Excitable and naive. Talks with wonder, sometimes childish.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마음만은 아이 – 자주 들뜨고 순진함. 항상 놀라고 감명받은 듯 이야기하며, 때로는 어린아이처럼 말함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.SkepticalScientist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.SkepticalScientist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skeptical Scientist – Demands evidence, dismisses superstition, explains logically.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">회의적인 과학자 – 증거를 요구하고, 미신을 일축하며, 논리적인 설명을 함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Martyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Martyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martyr – Self-sacrificing and dramatic. Talks about burden and enduring pain.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">순교자 – 자기 희생적이고 극적. 부담과 고통을 견디는 것에 대해 이야기함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Manipulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Manipulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulator – Charming but insincere. Uses flattery and deception.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">조종자 – 매력적이지만 불성실함. 아첨과 속임수를 사용함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Rebel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Rebel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebel – Defiant and mocking. Challenges authority, questions rules.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">반항아 – 도전적이고 남을 비웃음. 권위에 도전하고 규칙에 의문을 제기함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Oddball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Oddball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oddball – Quirky and strange. Uses odd metaphors and unpredictable logic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">괴짜 – 별나고 이상함. 기이한 은유와 예측 불가능한 논리를 사용함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.GreedyMerchant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.GreedyMerchant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greedy Merchant – Obsessed with trade. Talks in profits, bargains, and losses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">욕심 많은 상인 – 거래에 집착함. 이익, 흥정, 손실에 대해 이야기함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Romantic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Romantic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romantic – Dreamy and affectionate. Speaks in flowery language about love.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">낭만주의자 – 꿈을 꾸고 다정함. 사랑에 대해 화려한 언어로 말함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.BattleManiac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.BattleManiac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battle Maniac – Thrives on conflict. Talks excitedly about combat and glory.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전투광 – 갈등 속에서 활력을 얻음. 전투와 영광에 대해 흥분해서 말함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.GrumpyElder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.GrumpyElder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grumpy Elder – Complains constantly. Nostalgic, critical of others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">성질궂은 노인 – 끊임없이 불평함. 향수에 젖어 있고, 다른 사람을 비판함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.AmbitiousClimber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.AmbitiousClimber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambitious Climber – Competitive and status-driven. Obsessed with rank.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">야심찬 출세가 – 경쟁적이고 지위를 중시함. 계급에 집착함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Mediator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Mediator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediator – Calm and fair-minded. Tries to reconcile arguments.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">중재자 – 침착하고 공정함. 논쟁 발생 시 중재하려 노력함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Gambler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Gambler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambler – Risk-loving and bold. Speaks in chance metaphors.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도박꾼 – 위험을 즐기고 대담함. 운에 대한 은유를 사용함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.ArtisticSoul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.ArtisticSoul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artistic Soul – Talks about beauty, inspiration, and creativity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">예술가 – 아름다움, 영감, 창의성에 대해 이야기함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Drifter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Drifter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drifter – Detached and aloof. Casual tone, avoids attachment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방랑자 – 초연하고 냉담함. 무심한 어조로 말하고 애착을 피함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Perfectionist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Perfectionist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfectionist – Demanding and critical. Insists on doing things right.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">완벽주의자 – 까다롭고 비판적. 일을 올바르게 하는 것을 고집함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Personalities.Vengeful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Personalities.Vengeful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vengeful – Grudge-holding and intense. Obsessed with revenge.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">복수심에 불타는 자 – 강렬한 원한을 품음. 복수에 집착함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.TalkService.QuotaExceeded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.TalkService.QuotaExceeded</t>
+    <t xml:space="preserve">Keyed+RimTalk.TalkService.QuotaReached</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.TalkService.QuotaReached</t>
   </si>
   <si>
     <t xml:space="preserve">API quota exceeded. Try reducing prompt size or increasing cooldown.</t>
@@ -691,6 +116,42 @@
     <t xml:space="preserve">API 할당량을 초과했습니다. 프롬프트 길이를 줄이거나 쿨다운을 늘려보세요.</t>
   </si>
   <si>
+    <t xml:space="preserve">Keyed+RimTalk.TalkService.APIError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.TalkService.APIError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API error occurred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API 에러가 발생했습니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.TalkService.TryingNextAPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.TalkService.TryingNextAPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trying next API ({0})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 API ({0}) 사용을 시도합니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.TalkService.GenerationFailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.TalkService.GenerationFailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk generation failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">림토크 생성 실패</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+RimTalk.Settings.BasicSettings</t>
   </si>
   <si>
@@ -835,6 +296,102 @@
     <t xml:space="preserve">정착민이 소집 상태일 때도 림토크 말풍선을 표시합니다. 이는 대화 생성 중에 일시적으로 말풍선 모드 설정을 덮어씁니다.</t>
   </si>
   <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.AllowSlavesToTalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.AllowSlavesToTalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow slaves to talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">노예 대화 허용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.AllowSlavesToTalkTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.AllowSlavesToTalkTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable this to allow slaves to have AI-generated conversations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">활성화하면 노예에게 AI로 생성된 대화문이 출력됩니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.AllowPrisonersToTalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.AllowPrisonersToTalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow prisoners to talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수감자 대화 허용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.AllowPrisonersToTalkTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.AllowPrisonersToTalkTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable this to allow prisoners to have AI-generated conversations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">활성화하면 수감자에게 AI로 생성된 대화문이 출력됩니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.AllowOtherFactionsToTalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.AllowOtherFactionsToTalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow other factions to talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">타 세력 대화 허용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.AllowOtherFactionsToTalkTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.AllowOtherFactionsToTalkTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable this to allow members of other factions to have AI-generated conversations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">활성화하면 타 세력원에게 AI로 생성된 대화문이 출력됩니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.AllowEnemiesToTalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.AllowEnemiesToTalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow enemies to talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">적 대화 허용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.AllowEnemiesToTalkTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.AllowEnemiesToTalkTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable this to allow enemies to have AI-generated conversations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">활성화하면 적대 세력원에게 AI로 생성된 대화문이 출력됩니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+RimTalk.Settings.AIInstructionPrompt</t>
   </si>
   <si>
@@ -881,6 +438,18 @@
   </si>
   <si>
     <t xml:space="preserve">경고: 프롬프트의 길이가 길어질수록 더 많은 토큰을 소비하고 속도 제한에 더 빨리 도달합니다. 프롬프트 캐싱은 사용되지 않습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.BubbleFadeTip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.BubbleFadeTip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tip: Adjust the bubble fade time in the Interaction Bubbles mod settings to keep dialogue visible longer during fast-forward play.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">팁: 빨리감기 중에 대화문을 더 오래 표시하려면 Interaction Bubbles 모드 설정에서 말풍선이 사라지기 시작하는 틱을 조정하세요.</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+RimTalk.Settings.TokenInfo</t>
@@ -1002,6 +571,888 @@
     <t xml:space="preserve">Updated conversation style for {0}</t>
   </si>
   <si>
+    <t xml:space="preserve">{0}의 대화 방식이 갱신되었습니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.PersonalityEditor.Generating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.PersonalityEditor.Generating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generating...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생성 중…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.PersonalityEditor.Generate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.PersonalityEditor.Generate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI Generate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI 생성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.PersonalityEditor.Clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.PersonalityEditor.Clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지우기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.GoogleApiKeyLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.GoogleApiKeyLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google AI API Key:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구글 AI API 키:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.GoogleApiKeyDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.GoogleApiKeyDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses the free Gemma3 27B model. For other models or providers, use Advanced Settings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무료 모델인 Gemma3 27B를 사용합니다. 다른 모델 혹은 제공자를 사용하려면 고급 설정을 활용하세요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.GetFreeApiKeyButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.GetFreeApiKeyButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get a Free API Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.SwitchToAdvancedSettings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.SwitchToAdvancedSettings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch to Advanced Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고급 설정으로 전환</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.SwitchToSimpleSettings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.SwitchToSimpleSettings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch to Simple Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">간단 설정으로 전환</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.CloudProviders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.CloudProviders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">클라우드 제공자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.CloudProvidersDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.CloudProvidersDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use online AI services like Google AI, OpenAI, etc. Requires internet connection and API keys.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google AI, OpenAI 등 온라인 AI 서비스를 사용합니다. 인터넷 연결과 API 키가 필요합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.LocalProvider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.LocalProvider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local Provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로컬 제공자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.LocalProviderDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.LocalProviderDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use a local AI server running on your machine (Ollama, LM Studio, etc.). Must support OpenAPI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사용자의 기기에서 실행되는 로컬 AI 서버(Ollama, LM Studio 등)를 사용합니다. OpenAPI를 지원해야 합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.CloudApiConfigurations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.CloudApiConfigurations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud API Configurations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">클라우드 API 구성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.CloudApiConfigurationsDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.CloudApiConfigurationsDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If multiple APIs are enabled, the system will attempt to use them in order. If one API fails, it will automatically try the next enabled API in the list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여러 API가 활성화된 경우, 시스템은 순서대로 사용을 시도합니다. 한 API를 사용하는 데 실패하면 목록에서 다음에 있는 API 사용을 자동으로 시도합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.ProviderHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.ProviderHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제공자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.ApiKeyHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.ApiKeyHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API 키</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.ModelHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.ModelHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모델</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.CustomModelHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.CustomModelHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사용자 지정 모델</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.EnabledHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.EnabledHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">활성화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.EnableDisableApiConfigTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.EnableDisableApiConfigTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable or disable this API configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 API 구성을 활성화 또는 비활성화합니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.LocalProviderConfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.LocalProviderConfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local Provider Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로컬 제공자 구성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.BaseUrlLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.BaseUrlLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Url:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기본 Url:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.ModelLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.ModelLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모델:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Settings.EnterApiKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Settings.EnterApiKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(enter valid api key to fetch models)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(유효한 API 키를 입력하여 모델을 불러오세요)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Toggle.Tooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Toggle.Tooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle AI speech generation\n\nShift+click for settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI 대화 ON/OFF\n\nShift+클릭으로 설정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.CheerfulHelper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.CheerfulHelper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheerful Helper – Warm, upbeat, and encouraging. Always trying to lift spirits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쾌활한 조력자 – 따뜻함, 긍정적, 남을 격려함. 항상 사기를 북돋으려 함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.CynicalRealist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.CynicalRealist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynical Realist – Dry, sarcastic, and skeptical. Cuts straight to harsh truths.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">냉소적 현실주의자 – 냉정함, 비꼬는 말투, 회의적. 가혹한 진실을 직설적으로 말함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.ShyThinker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.ShyThinker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shy Thinker – Quiet and hesitant. Uses few words but thoughtful when speaking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수줍은 사색가 – 조용함, 망설임. 말이 적지만 사려 깊게 말함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Hothead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Hothead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hothead – Short-tempered, loud, and impulsive. Snaps easily with fiery language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다혈질 – 성미가 급하고 목소리가 큼, 충동적. 말투가 과격해지며 쉽게 폭발함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Philosopher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Philosopher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philosopher – Reflective and abstract. Speaks in riddles or big questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">철학자 – 사색적이고 추상적. 곧이곧대로 말하는 대신 수수께끼나 큰 질문을 던짐.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.DarkHumorist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.DarkHumorist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Humorist – Jokes about grim topics. Finds comedy in misery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">블랙 유머리스트 – 어두운 주제로 농담함. 불행 속에서 유머를 찾음.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Caregiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Caregiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caregiver – Gentle and protective. Comforting, soothing, and nurturing tone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">돌보미 – 온화하고 보호적. 편안하고 부드럽고 다정한 어조.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Opportunist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Opportunist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opportunist – Sly and persuasive. Talks like a hustler, bargains, and twists words.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기회주의자 – 교활하고 설득에 능함. 사기꾼처럼 말하며, 흥정하고 말을 뒤틂.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.OptimisticDreamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.OptimisticDreamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimistic Dreamer – Imaginative and hopeful. Excited about the future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">낙천적 몽상가 – 상상력이 풍부함, 희망적. 다가올 미래를 기대함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Pessimist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Pessimist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pessimist – Gloomy and resigned. Expects failure and highlights risks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비관주의자 – 우울하고 체념적. 실패를 예상하고 위험을 강조함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.StoicSoldier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.StoicSoldier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoic Soldier – Calm, disciplined, and brief. Little emotion, matter-of-fact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무뚝뚝한 군인 – 침착함, 절제됨, 간결함. 감정이 거의 없고 사실만을 말함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.FreeSpirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.FreeSpirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Spirit – Playful and carefree. Resists rules, shrugs off worries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자유로운 영혼 – 장난기 많고 근심이 없음. 규칙에 저항하고 걱정을 떨쳐냄.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Workaholic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Workaholic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workaholic – Driven and restless. Obsessed with duty and efficiency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">일 중독자 – 의욕적이고 가만히 못 있음. 의무와 효율성에 집착함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Slacker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Slacker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slacker – Lazy and casual. Complains about effort, prefers comfort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">게으름뱅이 – 게으르고 느긋함. 노력에 대해 불평하고 편안함을 선호함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.NobleIdealist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.NobleIdealist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noble Idealist – Formal and principled. Talks about honor and justice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고귀한 이상주의자 – 격식 있고 원칙적. 명예와 정의에 대해 이야기함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.StreetwiseSurvivor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.StreetwiseSurvivor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streetwise Survivor – Rough, pragmatic, and cynical. Distrusts others, values grit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">거리의 생존자 – 거칠고 실용적이며 냉소적. 다른 사람을 불신하고 인내력을 중요하게 생각함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Scholar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Scholar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholar – Curious and intellectual. Loves explaining and correcting others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">학자 – 호기심 많고 지적. 설명하고 다른 사람을 바로잡는 것을 좋아함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Jokester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Jokester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jokester – Lighthearted and silly. Constantly cracks jokes and puns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">농담꾼 – 명랑하고 우스꽝스러움. 끊임없이 농담과 말장난을 함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.MelancholicPoet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.MelancholicPoet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melancholic Poet – Soft-spoken and moody. Expresses feelings poetically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우울한 시인 – 목소리가 부드럽고 감정 기복이 심함. 감정을 시적으로 표현함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Paranoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Paranoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paranoid – Nervous and distrustful. Assumes betrayal, always suspicious.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">편집증적인 사람 – 불안하고 의심 많음. 배신을 전제로 하고, 항상 경계함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Commander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Commander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commander – Confident and commanding. Motivates others, expects obedience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지휘관 – 자신감 있고 명령적. 동기 부여에 능하고 타인의 복종을 기대함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Coward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Coward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coward – Timid and fearful. Worries aloud, avoids confrontation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">겁쟁이 – 소심하고 겁이 많음. 소리 내어 걱정하고, 대립을 피함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.ArrogantNoble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.ArrogantNoble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrogant Noble – Proud and condescending. Uses formal, superior language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">오만한 귀족 – 거만하고 거들먹거림. 격식 있고 고급스러운 어휘를 사용함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.LoyalCompanion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.LoyalCompanion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loyal Companion – Steadfast and supportive. Talks about trust and unity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">충직한 동반자 – 확고하고 지지적. 신뢰와 단결에 대해 이야기함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.CuriousExplorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.CuriousExplorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curious Explorer – Wide-eyed and eager. Asks questions with enthusiasm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">호기심 많은 탐험가 – 순진하고 열정적. 열광적으로 질문을 던짐.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.ColdRationalist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.ColdRationalist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold Rationalist – Detached and logical. Focused only on facts and efficiency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">냉정한 합리주의자 – 초연하고 논리적. 오직 사실과 효율성에만 집중함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.FlirtatiousCharmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.FlirtatiousCharmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flirtatious Charmer – Playful, teasing, and bold. Enjoys witty banter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">매혹적인 바람둥이 – 장난스러움, 남을 자주 놀림, 대담함. 재치 있는 농담을 즐김.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.BitterOutcast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.BitterOutcast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitter Outcast – Resentful and sharp. Hostile, quick to recall grievances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불만 많은 추방자 – 원망과 분노가 가득하며 날선 말투. 적대적이며, 불만을 빠르게 기억함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Zealot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Zealot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zealot – Fanatical and intense. Speaks in absolutes, condemns unbelievers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광신자 – 광적이고 강렬함. '~해야만 한다', '~뿐이다', '절대 ~이다' 등 단정적 표현을 사용하며 불신자를 비난함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Trickster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Trickster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trickster – Mischievous and mocking. Teases and stirs trouble for fun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장난꾸러기 – 장난기 많고 남을 조롱함. 재미로 타인을 놀리고 문제를 일으킴.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.DeadpanRealist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.DeadpanRealist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadpan Realist – Flat, emotionless tone. Blunt facts with no exaggeration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무표정한 현실주의자 – 단조롭고 감정 없는 어조. 과장 없이 직설적인 사실을 말함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.ChildAtHeart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.ChildAtHeart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child-at-Heart – Excitable and naive. Talks with wonder, sometimes childish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마음만은 아이 – 자주 들뜨고 순진함. 항상 놀라고 감명받은 듯 이야기하며, 때로는 어린아이처럼 말함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.SkepticalScientist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.SkepticalScientist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skeptical Scientist – Demands evidence, dismisses superstition, explains logically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">회의적인 과학자 – 증거를 요구하고, 미신을 일축하며, 논리적인 설명을 함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Martyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Martyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martyr – Self-sacrificing and dramatic. Talks about burden and enduring pain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">순교자 – 자기 희생적이고 극적. 부담과 고통을 견디는 것에 대해 이야기함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Manipulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Manipulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulator – Charming but insincere. Uses flattery and deception.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">조종자 – 매력적이지만 불성실함. 아첨과 속임수를 사용함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Rebel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Rebel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebel – Defiant and mocking. Challenges authority, questions rules.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반항아 – 도전적이고 남을 비웃음. 권위에 도전하고 규칙에 의문을 제기함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Oddball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Oddball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oddball – Quirky and strange. Uses odd metaphors and unpredictable logic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">괴짜 – 별나고 이상함. 기이한 은유와 예측 불가능한 논리를 사용함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.GreedyMerchant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.GreedyMerchant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greedy Merchant – Obsessed with trade. Talks in profits, bargains, and losses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">욕심 많은 상인 – 거래에 집착함. 이익, 흥정, 손실에 대해 이야기함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Romantic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Romantic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romantic – Dreamy and affectionate. Speaks in flowery language about love.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">낭만주의자 – 꿈을 꾸고 다정함. 사랑에 대해 화려한 언어로 말함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.BattleManiac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.BattleManiac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Maniac – Thrives on conflict. Talks excitedly about combat and glory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전투광 – 갈등 속에서 활력을 얻음. 전투와 영광에 대해 흥분해서 말함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.GrumpyElder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.GrumpyElder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grumpy Elder – Complains constantly. Nostalgic, critical of others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">성질궂은 노인 – 끊임없이 불평함. 향수에 젖어 있고, 다른 사람을 비판함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.AmbitiousClimber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.AmbitiousClimber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambitious Climber – Competitive and status-driven. Obsessed with rank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">야심찬 출세가 – 경쟁적이고 지위를 중시함. 계급에 집착함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Mediator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Mediator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediator – Calm and fair-minded. Tries to reconcile arguments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중재자 – 침착하고 공정함. 논쟁 발생 시 중재하려 노력함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Gambler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Gambler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambler – Risk-loving and bold. Speaks in chance metaphors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도박꾼 – 위험을 즐기고 대담함. 운에 대한 은유를 사용함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.ArtisticSoul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.ArtisticSoul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artistic Soul – Talks about beauty, inspiration, and creativity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">예술가 – 아름다움, 영감, 창의성에 대해 이야기함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Drifter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Drifter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drifter – Detached and aloof. Casual tone, avoids attachment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방랑자 – 초연하고 냉담함. 무심한 어조로 말하고 애착을 피함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Perfectionist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Perfectionist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfectionist – Demanding and critical. Insists on doing things right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">완벽주의자 – 까다롭고 비판적. 일을 올바르게 하는 것을 고집함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.Personalities.Vengeful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.Personalities.Vengeful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vengeful – Grudge-holding and intense. Obsessed with revenge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">복수심에 불타는 자 – 강렬한 원한을 품음. 복수에 집착함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RimTalk.TalkService.QuotaExceeded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RimTalk.TalkService.QuotaExceeded</t>
+  </si>
+  <si>
     <t xml:space="preserve">{0}의 대화 방식을 갱신함</t>
   </si>
   <si>
@@ -1015,27 +1466,6 @@
   </si>
   <si>
     <t xml:space="preserve">무작위</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.PersonalityEditor.Clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.PersonalityEditor.Clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지우기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+RimTalk.Settings.BubbleFadeTip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RimTalk.Settings.BubbleFadeTip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tip: Adjust the bubble fade time in the Interaction Bubbles mod settings to keep dialogue visible longer during fast-forward play.</t>
   </si>
   <si>
     <t xml:space="preserve">팁: 빨리감기를 사용한 플레이 중에 대화문을 더 오랫동안 표시하려면 Interaction Bubbles 모드 설정에서 말풍선이 사라지기 시작하는 틱을 조정하세요.</t>
@@ -1054,6 +1484,7 @@
       <color rgb="FF000000"/>
       <name val="나눔고딕"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1078,24 +1509,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor rgb="FFFFCC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF87CEEB"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1132,7 +1551,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1141,11 +1560,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1158,66 +1581,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF87CEEB"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFFA500"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1401,15 +1764,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6328125" defaultRowHeight="16.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="7.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="36.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="42.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="2" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,7 +1812,7 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1459,7 +1829,7 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1476,7 +1846,7 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1490,7 +1860,7 @@
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1507,7 +1877,7 @@
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1524,7 +1894,7 @@
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1541,7 +1911,7 @@
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1558,7 +1928,7 @@
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1575,7 +1945,7 @@
       <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1592,7 +1962,7 @@
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1609,7 +1979,7 @@
       <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1626,7 +1996,7 @@
       <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1643,7 +2013,7 @@
       <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1660,7 +2030,7 @@
       <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1677,7 +2047,7 @@
       <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1694,7 +2064,7 @@
       <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1711,7 +2081,7 @@
       <c r="C18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1728,7 +2098,7 @@
       <c r="C19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1745,7 +2115,7 @@
       <c r="C20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1762,7 +2132,7 @@
       <c r="C21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1779,7 +2149,7 @@
       <c r="C22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1796,7 +2166,7 @@
       <c r="C23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1813,7 +2183,7 @@
       <c r="C24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1830,7 +2200,7 @@
       <c r="C25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1847,7 +2217,7 @@
       <c r="C26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1864,7 +2234,7 @@
       <c r="C27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -1881,7 +2251,7 @@
       <c r="C28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -1898,7 +2268,7 @@
       <c r="C29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1915,7 +2285,7 @@
       <c r="C30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -1932,7 +2302,7 @@
       <c r="C31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -1949,7 +2319,7 @@
       <c r="C32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -1966,7 +2336,7 @@
       <c r="C33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -1983,7 +2353,7 @@
       <c r="C34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -2000,7 +2370,7 @@
       <c r="C35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -2017,7 +2387,7 @@
       <c r="C36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>145</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -2034,7 +2404,7 @@
       <c r="C37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>149</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -2051,7 +2421,7 @@
       <c r="C38" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -2068,7 +2438,7 @@
       <c r="C39" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>157</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -2085,7 +2455,7 @@
       <c r="C40" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>161</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -2102,7 +2472,7 @@
       <c r="C41" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -2119,10 +2489,10 @@
       <c r="C42" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="3" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2136,7 +2506,7 @@
       <c r="C43" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -2153,7 +2523,7 @@
       <c r="C44" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="1" t="s">
         <v>177</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -2170,7 +2540,7 @@
       <c r="C45" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="1" t="s">
         <v>181</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -2187,7 +2557,7 @@
       <c r="C46" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>185</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -2204,7 +2574,7 @@
       <c r="C47" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="1" t="s">
         <v>189</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -2221,7 +2591,7 @@
       <c r="C48" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>193</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -2238,7 +2608,7 @@
       <c r="C49" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -2255,7 +2625,7 @@
       <c r="C50" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -2272,572 +2642,1795 @@
       <c r="C51" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>206</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F70" s="1" t="s">
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff페이지 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F84"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.6328125" defaultRowHeight="16.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="49.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="37.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="23.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="41.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="66.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="4" width="7.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>282</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>286</v>
+      <c r="A71" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>290</v>
+      <c r="A72" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>294</v>
+      <c r="A73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>298</v>
+      <c r="A74" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>302</v>
+      <c r="A75" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>306</v>
+      <c r="A76" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>310</v>
+      <c r="A77" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>314</v>
+      <c r="A78" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>318</v>
+      <c r="A79" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>322</v>
+      <c r="A80" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>326</v>
+      <c r="A81" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>330</v>
+      <c r="A82" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>334</v>
+      <c r="A83" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>338</v>
+      <c r="A84" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
